--- a/translation/xlsx/_tsum_010.xlsx
+++ b/translation/xlsx/_tsum_010.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="2381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="2382">
   <si>
     <t>actor</t>
   </si>
@@ -5243,16 +5243,19 @@
     <t xml:space="preserve"> I have an idea! We can make a game out of helping her out with her housework!\"</t>
   </si>
   <si>
+    <t xml:space="preserve">레나 씨의 집안일 돕기로 순위를 가려도 좋겠네요!\" </t>
+  </si>
+  <si>
+    <t>레나 씨의 집안일을 돕는 걸로 순위를 다투는 것도 좋겠어요!\"</t>
+  </si>
+  <si>
+    <t>레나씨의 집안의 도움으로 우열을 다투는 일도 있지요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">레나 씨의 집안일을 돕는 걸로 순위를 가리는 것도 좋겠네요!\" </t>
+  </si>
+  <si>
     <t xml:space="preserve">레나 씨의 집안일을 돕기로 순위를 가려도 좋겠네요!\" </t>
-  </si>
-  <si>
-    <t>레나 씨의 집안일을 돕는 걸로 순위를 다투는 것도 좋겠어요!\"</t>
-  </si>
-  <si>
-    <t>레나씨의 집안의 도움으로 우열을 다투는 일도 있지요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">레나 씨의 집안일을 돕는 걸로 순위를 가리는 것도 좋겠네요!\" </t>
   </si>
   <si>
     <t>「……多分、お手伝いしない方が優勝なのです。」</t>
@@ -15802,7 +15805,7 @@
         <v>1663</v>
       </c>
       <c r="Q317" s="16" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
@@ -15810,32 +15813,32 @@
         <v>1375</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="L318" s="4"/>
       <c r="M318" s="16" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="N318" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="O318" s="16" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="Q318" s="16" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="R318" s="16" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
@@ -15843,50 +15846,50 @@
         <v>396</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="D319" s="16" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="L319" s="4"/>
       <c r="M319" s="16" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="N319" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O319" s="16" t="s">
         <v>1675</v>
       </c>
-      <c r="O319" s="16" t="s">
-        <v>1674</v>
-      </c>
       <c r="Q319" s="16" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="B320" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="L320" s="4"/>
       <c r="M320" s="16" t="s">
+        <v>1680</v>
+      </c>
+      <c r="N320" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="O320" s="16" t="s">
         <v>1679</v>
       </c>
-      <c r="N320" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="O320" s="16" t="s">
-        <v>1678</v>
-      </c>
       <c r="Q320" s="16" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
@@ -15894,50 +15897,50 @@
         <v>1343</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="L321" s="4"/>
       <c r="M321" s="2" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="N321" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="O321" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="O321" s="2" t="s">
-        <v>1683</v>
-      </c>
       <c r="Q321" s="2" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="B322" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="L322" s="4"/>
       <c r="M322" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="N322" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O322" s="2" t="s">
         <v>1688</v>
       </c>
-      <c r="N322" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="O322" s="2" t="s">
-        <v>1687</v>
-      </c>
       <c r="Q322" s="2" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
@@ -15945,26 +15948,26 @@
         <v>1343</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="L323" s="4"/>
       <c r="M323" s="2" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="N323" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O323" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="O323" s="2" t="s">
-        <v>1692</v>
-      </c>
       <c r="Q323" s="2" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
@@ -15972,50 +15975,50 @@
         <v>1343</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D324" s="16" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="L324" s="4"/>
       <c r="M324" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="N324" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="O324" s="16" t="s">
         <v>1697</v>
       </c>
-      <c r="N324" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="O324" s="16" t="s">
-        <v>1696</v>
-      </c>
       <c r="Q324" s="16" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="B325" s="1" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="D325" s="16" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="L325" s="4"/>
       <c r="M325" s="16" t="s">
+        <v>1703</v>
+      </c>
+      <c r="N325" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="O325" s="16" t="s">
         <v>1702</v>
       </c>
-      <c r="N325" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="O325" s="16" t="s">
-        <v>1701</v>
-      </c>
       <c r="Q325" s="16" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
@@ -16023,10 +16026,10 @@
         <v>1155</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="D326" s="16" t="s">
         <v>1418</v>
@@ -16036,7 +16039,7 @@
         <v>1418</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="O326" s="16" t="s">
         <v>1418</v>
@@ -16047,26 +16050,26 @@
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="B327" s="1" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="D327" s="16" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="L327" s="4"/>
       <c r="M327" s="16" t="s">
+        <v>1711</v>
+      </c>
+      <c r="N327" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="O327" s="16" t="s">
         <v>1710</v>
       </c>
-      <c r="N327" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="O327" s="16" t="s">
-        <v>1709</v>
-      </c>
       <c r="Q327" s="16" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
@@ -16074,203 +16077,203 @@
         <v>1327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D328" s="16" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="L328" s="4"/>
       <c r="M328" s="16" t="s">
+        <v>1716</v>
+      </c>
+      <c r="N328" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="O328" s="16" t="s">
+        <v>1718</v>
+      </c>
+      <c r="Q328" s="16" t="s">
         <v>1715</v>
-      </c>
-      <c r="N328" s="1" t="s">
-        <v>1716</v>
-      </c>
-      <c r="O328" s="16" t="s">
-        <v>1717</v>
-      </c>
-      <c r="Q328" s="16" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="B329" s="1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="D329" s="16" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="L329" s="4"/>
       <c r="M329" s="16" t="s">
+        <v>1722</v>
+      </c>
+      <c r="N329" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="O329" s="16" t="s">
         <v>1721</v>
       </c>
-      <c r="N329" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="O329" s="16" t="s">
-        <v>1720</v>
-      </c>
       <c r="Q329" s="16" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="B330" s="1" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D330" s="16" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="L330" s="4"/>
       <c r="M330" s="16" t="s">
+        <v>1727</v>
+      </c>
+      <c r="N330" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="O330" s="16" t="s">
+        <v>1727</v>
+      </c>
+      <c r="Q330" s="16" t="s">
         <v>1726</v>
-      </c>
-      <c r="N330" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="O330" s="16" t="s">
-        <v>1726</v>
-      </c>
-      <c r="Q330" s="16" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="B331" s="1" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="L331" s="4"/>
       <c r="M331" s="16" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="N331" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="O331" s="11" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="P331" s="18" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="Q331" s="9" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="R331" s="9" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="B332" s="1" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D332" s="16" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="L332" s="4"/>
       <c r="M332" s="16" t="s">
+        <v>1742</v>
+      </c>
+      <c r="N332" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="O332" s="16" t="s">
         <v>1741</v>
       </c>
-      <c r="N332" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="O332" s="16" t="s">
-        <v>1740</v>
-      </c>
       <c r="Q332" s="16" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="B333" s="1" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D333" s="16" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="L333" s="4"/>
       <c r="M333" s="16" t="s">
+        <v>1747</v>
+      </c>
+      <c r="N333" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="O333" s="16" t="s">
         <v>1746</v>
       </c>
-      <c r="N333" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="O333" s="16" t="s">
-        <v>1745</v>
-      </c>
       <c r="Q333" s="16" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="B334" s="1" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="L334" s="4"/>
       <c r="M334" s="16" t="s">
+        <v>1752</v>
+      </c>
+      <c r="N334" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O334" s="16" t="s">
         <v>1751</v>
       </c>
-      <c r="N334" s="1" t="s">
-        <v>1752</v>
-      </c>
-      <c r="O334" s="16" t="s">
-        <v>1750</v>
-      </c>
       <c r="Q334" s="16" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="B335" s="1" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D335" s="16" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="L335" s="4"/>
       <c r="M335" s="16" t="s">
+        <v>1757</v>
+      </c>
+      <c r="N335" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="O335" s="16" t="s">
         <v>1756</v>
       </c>
-      <c r="N335" s="1" t="s">
-        <v>1757</v>
-      </c>
-      <c r="O335" s="16" t="s">
-        <v>1755</v>
-      </c>
       <c r="Q335" s="16" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
@@ -16278,50 +16281,50 @@
         <v>1155</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="L336" s="4"/>
       <c r="M336" s="16" t="s">
+        <v>1762</v>
+      </c>
+      <c r="N336" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="O336" s="16" t="s">
         <v>1761</v>
       </c>
-      <c r="N336" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="O336" s="16" t="s">
-        <v>1760</v>
-      </c>
       <c r="Q336" s="16" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="B337" s="1" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="D337" s="18" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="L337" s="4"/>
       <c r="M337" s="16" t="s">
+        <v>1767</v>
+      </c>
+      <c r="N337" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O337" s="18" t="s">
         <v>1766</v>
       </c>
-      <c r="N337" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="O337" s="18" t="s">
-        <v>1765</v>
-      </c>
       <c r="Q337" s="18" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
@@ -16329,53 +16332,53 @@
         <v>1327</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="D338" s="16" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="L338" s="4"/>
       <c r="M338" s="16" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="N338" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="O338" s="16" t="s">
         <v>1771</v>
       </c>
-      <c r="O338" s="16" t="s">
-        <v>1770</v>
-      </c>
       <c r="Q338" s="16" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="B339" s="1" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D339" s="19" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="L339" s="4"/>
       <c r="M339" s="16" t="s">
+        <v>1776</v>
+      </c>
+      <c r="N339" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="O339" s="19" t="s">
         <v>1775</v>
       </c>
-      <c r="N339" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="O339" s="19" t="s">
-        <v>1774</v>
-      </c>
       <c r="P339" s="13" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
@@ -16383,50 +16386,50 @@
         <v>1343</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="L340" s="4"/>
       <c r="M340" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="N340" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="O340" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="N340" s="1" t="s">
-        <v>1782</v>
-      </c>
-      <c r="O340" s="2" t="s">
-        <v>1780</v>
-      </c>
       <c r="Q340" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="B341" s="1" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="L341" s="4"/>
       <c r="M341" s="13" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="N341" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="O341" s="13" t="s">
         <v>1786</v>
       </c>
-      <c r="O341" s="13" t="s">
-        <v>1785</v>
-      </c>
       <c r="Q341" s="13" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
@@ -16434,50 +16437,50 @@
         <v>1343</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D342" s="16" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="L342" s="4"/>
       <c r="M342" s="16" t="s">
+        <v>1791</v>
+      </c>
+      <c r="N342" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="O342" s="16" t="s">
         <v>1790</v>
       </c>
-      <c r="N342" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="O342" s="16" t="s">
-        <v>1789</v>
-      </c>
       <c r="Q342" s="16" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="B343" s="1" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="L343" s="4"/>
       <c r="M343" s="16" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="N343" s="1" t="s">
         <v>1385</v>
       </c>
       <c r="O343" s="16" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="Q343" s="16" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
@@ -16485,170 +16488,170 @@
         <v>1375</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="D344" s="16" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="L344" s="4"/>
       <c r="M344" s="16" t="s">
+        <v>1800</v>
+      </c>
+      <c r="N344" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O344" s="16" t="s">
         <v>1799</v>
       </c>
-      <c r="N344" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="O344" s="16" t="s">
-        <v>1798</v>
-      </c>
       <c r="Q344" s="16" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="B345" s="1" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D345" s="16" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="L345" s="4"/>
       <c r="M345" s="16" t="s">
+        <v>1805</v>
+      </c>
+      <c r="N345" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O345" s="16" t="s">
         <v>1804</v>
       </c>
-      <c r="N345" s="1" t="s">
-        <v>1805</v>
-      </c>
-      <c r="O345" s="16" t="s">
-        <v>1803</v>
-      </c>
       <c r="Q345" s="16" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="B346" s="1" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D346" s="16" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="L346" s="4"/>
       <c r="M346" s="16" t="s">
+        <v>1810</v>
+      </c>
+      <c r="N346" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="O346" s="16" t="s">
         <v>1809</v>
       </c>
-      <c r="N346" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="O346" s="16" t="s">
-        <v>1808</v>
-      </c>
       <c r="Q346" s="16" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="B347" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="L347" s="4"/>
       <c r="M347" s="16" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="N347" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="O347" s="16" t="s">
         <v>1814</v>
       </c>
-      <c r="O347" s="16" t="s">
-        <v>1813</v>
-      </c>
       <c r="Q347" s="16" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="B348" s="1" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D348" s="16" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="L348" s="4"/>
       <c r="M348" s="16" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="N348" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="O348" s="16" t="s">
         <v>1818</v>
       </c>
-      <c r="O348" s="16" t="s">
-        <v>1817</v>
-      </c>
       <c r="Q348" s="16" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="B349" s="1" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="L349" s="4"/>
       <c r="M349" s="16" t="s">
+        <v>1823</v>
+      </c>
+      <c r="N349" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="O349" s="16" t="s">
         <v>1822</v>
       </c>
-      <c r="N349" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="O349" s="16" t="s">
-        <v>1821</v>
-      </c>
       <c r="Q349" s="16" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="B350" s="1" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="L350" s="4"/>
       <c r="M350" s="16" t="s">
+        <v>1828</v>
+      </c>
+      <c r="N350" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="O350" s="16" t="s">
         <v>1827</v>
       </c>
-      <c r="N350" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="O350" s="16" t="s">
-        <v>1826</v>
-      </c>
       <c r="Q350" s="16" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
@@ -16656,26 +16659,26 @@
         <v>1343</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="L351" s="4"/>
       <c r="M351" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="N351" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="O351" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="N351" s="1" t="s">
-        <v>1833</v>
-      </c>
-      <c r="O351" s="2" t="s">
-        <v>1831</v>
-      </c>
       <c r="Q351" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
@@ -16683,26 +16686,26 @@
         <v>1343</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="L352" s="4"/>
       <c r="M352" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="N352" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="O352" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="O352" s="2" t="s">
-        <v>1836</v>
-      </c>
       <c r="Q352" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
@@ -16710,50 +16713,50 @@
         <v>1343</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L353" s="4"/>
       <c r="M353" s="16" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="N353" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="O353" s="16" t="s">
         <v>1841</v>
       </c>
-      <c r="O353" s="16" t="s">
-        <v>1840</v>
-      </c>
       <c r="Q353" s="16" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="B354" s="1" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D354" s="13" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="L354" s="4"/>
       <c r="M354" s="13" t="s">
+        <v>1846</v>
+      </c>
+      <c r="N354" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="O354" s="13" t="s">
         <v>1845</v>
       </c>
-      <c r="N354" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="O354" s="13" t="s">
-        <v>1844</v>
-      </c>
       <c r="Q354" s="13" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
@@ -16761,77 +16764,77 @@
         <v>1155</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="L355" s="4"/>
       <c r="M355" s="16" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="N355" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="O355" s="16" t="s">
         <v>1850</v>
       </c>
-      <c r="O355" s="16" t="s">
-        <v>1849</v>
-      </c>
       <c r="Q355" s="16" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="B356" s="1" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="L356" s="4"/>
       <c r="M356" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="N356" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="O356" s="16" t="s">
         <v>1854</v>
       </c>
-      <c r="N356" s="1" t="s">
-        <v>1855</v>
-      </c>
-      <c r="O356" s="16" t="s">
-        <v>1853</v>
-      </c>
       <c r="Q356" s="16" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="B357" s="1" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="D357" s="20" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="L357" s="4"/>
       <c r="M357" s="16" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="N357" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="O357" s="20" t="s">
         <v>1859</v>
       </c>
-      <c r="O357" s="20" t="s">
-        <v>1858</v>
-      </c>
       <c r="P357" s="9" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="Q357" s="20" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
@@ -16839,50 +16842,50 @@
         <v>1155</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="L358" s="4"/>
       <c r="M358" s="16" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="N358" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="O358" s="16" t="s">
         <v>1864</v>
       </c>
-      <c r="O358" s="16" t="s">
-        <v>1863</v>
-      </c>
       <c r="Q358" s="16" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="B359" s="1" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="D359" s="21" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="L359" s="4"/>
       <c r="M359" s="16" t="s">
+        <v>1869</v>
+      </c>
+      <c r="N359" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="O359" s="16" t="s">
+        <v>1871</v>
+      </c>
+      <c r="Q359" s="21" t="s">
         <v>1868</v>
-      </c>
-      <c r="N359" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="O359" s="16" t="s">
-        <v>1870</v>
-      </c>
-      <c r="Q359" s="21" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
@@ -16890,29 +16893,29 @@
         <v>1327</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D360" s="13" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="L360" s="4"/>
       <c r="M360" s="13" t="s">
+        <v>1875</v>
+      </c>
+      <c r="N360" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="O360" s="22" t="s">
+        <v>1877</v>
+      </c>
+      <c r="P360" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="N360" s="1" t="s">
-        <v>1875</v>
-      </c>
-      <c r="O360" s="22" t="s">
-        <v>1876</v>
-      </c>
-      <c r="P360" s="13" t="s">
-        <v>1873</v>
-      </c>
       <c r="Q360" s="13" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
@@ -16920,29 +16923,29 @@
         <v>1327</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="L361" s="4"/>
       <c r="M361" s="16" t="s">
+        <v>1881</v>
+      </c>
+      <c r="N361" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="O361" s="20" t="s">
+        <v>1883</v>
+      </c>
+      <c r="P361" s="16" t="s">
         <v>1880</v>
       </c>
-      <c r="N361" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="O361" s="20" t="s">
-        <v>1882</v>
-      </c>
-      <c r="P361" s="16" t="s">
-        <v>1879</v>
-      </c>
       <c r="Q361" s="16" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
@@ -16950,50 +16953,50 @@
         <v>1155</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D362" s="23" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="L362" s="4"/>
       <c r="M362" s="13" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="N362" s="1" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="O362" s="13" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="Q362" s="13" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="B363" s="1" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="D363" s="13" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="L363" s="4"/>
       <c r="M363" s="13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N363" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="O363" s="13" t="s">
         <v>1892</v>
       </c>
-      <c r="N363" s="1" t="s">
-        <v>1893</v>
-      </c>
-      <c r="O363" s="13" t="s">
-        <v>1891</v>
-      </c>
       <c r="Q363" s="13" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
@@ -17001,122 +17004,122 @@
         <v>1343</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="L364" s="4"/>
       <c r="M364" s="13" t="s">
+        <v>1898</v>
+      </c>
+      <c r="N364" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="O364" s="13" t="s">
         <v>1897</v>
       </c>
-      <c r="N364" s="1" t="s">
-        <v>1898</v>
-      </c>
-      <c r="O364" s="13" t="s">
-        <v>1896</v>
-      </c>
       <c r="Q364" s="13" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="B365" s="1" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="D365" s="13" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="L365" s="4"/>
       <c r="M365" s="13" t="s">
+        <v>1903</v>
+      </c>
+      <c r="N365" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O365" s="13" t="s">
         <v>1902</v>
       </c>
-      <c r="N365" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="O365" s="13" t="s">
-        <v>1901</v>
-      </c>
       <c r="Q365" s="13" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="B366" s="1" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D366" s="13" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="L366" s="4"/>
       <c r="M366" s="13" t="s">
+        <v>1908</v>
+      </c>
+      <c r="N366" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="O366" s="13" t="s">
         <v>1907</v>
       </c>
-      <c r="N366" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="O366" s="13" t="s">
-        <v>1906</v>
-      </c>
       <c r="Q366" s="13" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="B367" s="1" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="D367" s="13" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="L367" s="4"/>
       <c r="M367" s="13" t="s">
+        <v>1913</v>
+      </c>
+      <c r="N367" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="O367" s="13" t="s">
         <v>1912</v>
       </c>
-      <c r="N367" s="1" t="s">
-        <v>1913</v>
-      </c>
-      <c r="O367" s="13" t="s">
-        <v>1911</v>
-      </c>
       <c r="Q367" s="13" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="B368" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D368" s="13" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L368" s="4"/>
       <c r="M368" s="13" t="s">
+        <v>1918</v>
+      </c>
+      <c r="N368" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="O368" s="13" t="s">
         <v>1917</v>
       </c>
-      <c r="N368" s="1" t="s">
-        <v>1918</v>
-      </c>
-      <c r="O368" s="13" t="s">
-        <v>1916</v>
-      </c>
       <c r="Q368" s="13" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
@@ -17124,26 +17127,26 @@
         <v>1343</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D369" s="24" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="L369" s="4"/>
       <c r="M369" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="N369" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="O369" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="Q369" s="24" t="s">
         <v>1922</v>
-      </c>
-      <c r="N369" s="1" t="s">
-        <v>1923</v>
-      </c>
-      <c r="O369" s="13" t="s">
-        <v>1924</v>
-      </c>
-      <c r="Q369" s="24" t="s">
-        <v>1921</v>
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1">
@@ -17151,26 +17154,26 @@
         <v>1343</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="D370" s="13" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="L370" s="4"/>
       <c r="M370" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="N370" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="O370" s="13" t="s">
         <v>1928</v>
       </c>
-      <c r="N370" s="1" t="s">
-        <v>1929</v>
-      </c>
-      <c r="O370" s="13" t="s">
-        <v>1927</v>
-      </c>
       <c r="Q370" s="13" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1">
@@ -17178,50 +17181,50 @@
         <v>1155</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="D371" s="13" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="L371" s="4"/>
       <c r="M371" s="13" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N371" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O371" s="13" t="s">
         <v>1933</v>
       </c>
-      <c r="N371" s="1" t="s">
-        <v>1934</v>
-      </c>
-      <c r="O371" s="13" t="s">
-        <v>1932</v>
-      </c>
       <c r="Q371" s="13" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="B372" s="1" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="D372" s="23" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="L372" s="4"/>
       <c r="M372" s="13" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="O372" s="13" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="Q372" s="13" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="373" ht="15.75" customHeight="1">
@@ -17229,122 +17232,122 @@
         <v>1343</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="D373" s="23" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L373" s="4"/>
       <c r="M373" s="13" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="O373" s="13" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="Q373" s="13" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="B374" s="1" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D374" s="13" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="L374" s="4"/>
       <c r="M374" s="13" t="s">
+        <v>1951</v>
+      </c>
+      <c r="N374" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="O374" s="13" t="s">
         <v>1950</v>
       </c>
-      <c r="N374" s="1" t="s">
-        <v>1951</v>
-      </c>
-      <c r="O374" s="13" t="s">
-        <v>1949</v>
-      </c>
       <c r="Q374" s="13" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="B375" s="1" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D375" s="13" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="L375" s="4"/>
       <c r="M375" s="13" t="s">
+        <v>1956</v>
+      </c>
+      <c r="N375" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="O375" s="13" t="s">
+        <v>1958</v>
+      </c>
+      <c r="Q375" s="13" t="s">
         <v>1955</v>
-      </c>
-      <c r="N375" s="1" t="s">
-        <v>1956</v>
-      </c>
-      <c r="O375" s="13" t="s">
-        <v>1957</v>
-      </c>
-      <c r="Q375" s="13" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="B376" s="1" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="L376" s="4"/>
       <c r="M376" s="13" t="s">
+        <v>1962</v>
+      </c>
+      <c r="N376" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="O376" s="13" t="s">
         <v>1961</v>
       </c>
-      <c r="N376" s="1" t="s">
-        <v>1962</v>
-      </c>
-      <c r="O376" s="13" t="s">
-        <v>1960</v>
-      </c>
       <c r="Q376" s="13" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="B377" s="1" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D377" s="13" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="L377" s="4"/>
       <c r="M377" s="13" t="s">
+        <v>1967</v>
+      </c>
+      <c r="N377" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="O377" s="13" t="s">
         <v>1966</v>
       </c>
-      <c r="N377" s="1" t="s">
-        <v>1967</v>
-      </c>
-      <c r="O377" s="13" t="s">
-        <v>1965</v>
-      </c>
       <c r="Q377" s="13" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
@@ -17352,50 +17355,50 @@
         <v>1327</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="L378" s="4"/>
       <c r="M378" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N378" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="O378" s="13" t="s">
         <v>1971</v>
       </c>
-      <c r="N378" s="1" t="s">
-        <v>1972</v>
-      </c>
-      <c r="O378" s="13" t="s">
-        <v>1970</v>
-      </c>
       <c r="Q378" s="13" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="B379" s="1" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D379" s="13" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="L379" s="4"/>
       <c r="M379" s="13" t="s">
+        <v>1977</v>
+      </c>
+      <c r="N379" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="O379" s="13" t="s">
         <v>1976</v>
       </c>
-      <c r="N379" s="1" t="s">
-        <v>1977</v>
-      </c>
-      <c r="O379" s="13" t="s">
-        <v>1975</v>
-      </c>
       <c r="Q379" s="13" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
@@ -17403,50 +17406,50 @@
         <v>1155</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="L380" s="4"/>
       <c r="M380" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="N380" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="O380" s="13" t="s">
         <v>1981</v>
       </c>
-      <c r="N380" s="1" t="s">
-        <v>1982</v>
-      </c>
-      <c r="O380" s="13" t="s">
-        <v>1980</v>
-      </c>
       <c r="Q380" s="13" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="B381" s="1" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="D381" s="13" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="L381" s="4"/>
       <c r="M381" s="13" t="s">
+        <v>1987</v>
+      </c>
+      <c r="N381" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O381" s="13" t="s">
         <v>1986</v>
       </c>
-      <c r="N381" s="1" t="s">
-        <v>1987</v>
-      </c>
-      <c r="O381" s="13" t="s">
-        <v>1985</v>
-      </c>
       <c r="Q381" s="13" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
@@ -17454,26 +17457,26 @@
         <v>1343</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D382" s="13" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="L382" s="4"/>
       <c r="M382" s="13" t="s">
+        <v>1992</v>
+      </c>
+      <c r="N382" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="O382" s="13" t="s">
         <v>1991</v>
       </c>
-      <c r="N382" s="1" t="s">
-        <v>1992</v>
-      </c>
-      <c r="O382" s="13" t="s">
-        <v>1990</v>
-      </c>
       <c r="Q382" s="13" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1">
@@ -17481,98 +17484,98 @@
         <v>1343</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="L383" s="4"/>
       <c r="M383" s="13" t="s">
+        <v>1997</v>
+      </c>
+      <c r="N383" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="O383" s="11" t="s">
+        <v>1999</v>
+      </c>
+      <c r="Q383" s="11" t="s">
         <v>1996</v>
-      </c>
-      <c r="N383" s="1" t="s">
-        <v>1997</v>
-      </c>
-      <c r="O383" s="11" t="s">
-        <v>1998</v>
-      </c>
-      <c r="Q383" s="11" t="s">
-        <v>1995</v>
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="B384" s="1" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="L384" s="4"/>
       <c r="M384" s="13" t="s">
+        <v>2003</v>
+      </c>
+      <c r="N384" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="O384" s="11" t="s">
         <v>2002</v>
       </c>
-      <c r="N384" s="1" t="s">
-        <v>2003</v>
-      </c>
-      <c r="O384" s="11" t="s">
-        <v>2001</v>
-      </c>
       <c r="Q384" s="11" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="B385" s="1" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D385" s="13" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="L385" s="4"/>
       <c r="M385" s="13" t="s">
+        <v>2008</v>
+      </c>
+      <c r="N385" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="O385" s="13" t="s">
+        <v>2010</v>
+      </c>
+      <c r="Q385" s="13" t="s">
         <v>2007</v>
-      </c>
-      <c r="N385" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="O385" s="13" t="s">
-        <v>2009</v>
-      </c>
-      <c r="Q385" s="13" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="B386" s="1" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="L386" s="4"/>
       <c r="M386" s="13" t="s">
+        <v>2014</v>
+      </c>
+      <c r="N386" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="O386" s="13" t="s">
         <v>2013</v>
       </c>
-      <c r="N386" s="1" t="s">
-        <v>2014</v>
-      </c>
-      <c r="O386" s="13" t="s">
-        <v>2012</v>
-      </c>
       <c r="Q386" s="13" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1">
@@ -17580,50 +17583,50 @@
         <v>1343</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>1251</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="L387" s="4"/>
       <c r="M387" s="13" t="s">
+        <v>2018</v>
+      </c>
+      <c r="N387" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="O387" s="13" t="s">
         <v>2017</v>
       </c>
-      <c r="N387" s="1" t="s">
-        <v>2018</v>
-      </c>
-      <c r="O387" s="13" t="s">
-        <v>2016</v>
-      </c>
       <c r="Q387" s="13" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="B388" s="1" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="L388" s="4"/>
       <c r="M388" s="13" t="s">
+        <v>2023</v>
+      </c>
+      <c r="N388" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="O388" s="13" t="s">
         <v>2022</v>
       </c>
-      <c r="N388" s="1" t="s">
-        <v>2023</v>
-      </c>
-      <c r="O388" s="13" t="s">
-        <v>2021</v>
-      </c>
       <c r="Q388" s="13" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="389" ht="15.75" customHeight="1">
@@ -17631,74 +17634,74 @@
         <v>1155</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="L389" s="4"/>
       <c r="M389" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="N389" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="O389" s="13" t="s">
+        <v>2030</v>
+      </c>
+      <c r="Q389" s="13" t="s">
         <v>2027</v>
-      </c>
-      <c r="N389" s="1" t="s">
-        <v>2028</v>
-      </c>
-      <c r="O389" s="13" t="s">
-        <v>2029</v>
-      </c>
-      <c r="Q389" s="13" t="s">
-        <v>2026</v>
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="B390" s="1" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="D390" s="13" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="L390" s="4"/>
       <c r="M390" s="13" t="s">
+        <v>2034</v>
+      </c>
+      <c r="N390" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="O390" s="13" t="s">
         <v>2033</v>
       </c>
-      <c r="N390" s="1" t="s">
-        <v>2034</v>
-      </c>
-      <c r="O390" s="13" t="s">
-        <v>2032</v>
-      </c>
       <c r="Q390" s="13" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="B391" s="1" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="D391" s="13" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="L391" s="4"/>
       <c r="M391" s="13" t="s">
+        <v>2039</v>
+      </c>
+      <c r="N391" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="O391" s="13" t="s">
         <v>2038</v>
       </c>
-      <c r="N391" s="1" t="s">
-        <v>2039</v>
-      </c>
-      <c r="O391" s="13" t="s">
-        <v>2037</v>
-      </c>
       <c r="Q391" s="13" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1">
@@ -17706,50 +17709,50 @@
         <v>1343</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="L392" s="4"/>
       <c r="M392" s="13" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N392" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="O392" s="13" t="s">
+        <v>2046</v>
+      </c>
+      <c r="Q392" s="13" t="s">
         <v>2043</v>
-      </c>
-      <c r="N392" s="1" t="s">
-        <v>2044</v>
-      </c>
-      <c r="O392" s="13" t="s">
-        <v>2045</v>
-      </c>
-      <c r="Q392" s="13" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="B393" s="1" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="D393" s="13" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="L393" s="4"/>
       <c r="M393" s="13" t="s">
+        <v>2050</v>
+      </c>
+      <c r="N393" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="O393" s="13" t="s">
         <v>2049</v>
       </c>
-      <c r="N393" s="1" t="s">
-        <v>2050</v>
-      </c>
-      <c r="O393" s="13" t="s">
-        <v>2048</v>
-      </c>
       <c r="Q393" s="13" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1">
@@ -17757,146 +17760,146 @@
         <v>1343</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="D394" s="13" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="L394" s="4"/>
       <c r="M394" s="13" t="s">
+        <v>2055</v>
+      </c>
+      <c r="N394" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="O394" s="13" t="s">
         <v>2054</v>
       </c>
-      <c r="N394" s="1" t="s">
-        <v>2055</v>
-      </c>
-      <c r="O394" s="13" t="s">
-        <v>2053</v>
-      </c>
       <c r="Q394" s="13" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="B395" s="1" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="D395" s="13" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="L395" s="4"/>
       <c r="M395" s="13" t="s">
+        <v>2060</v>
+      </c>
+      <c r="N395" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="O395" s="13" t="s">
         <v>2059</v>
       </c>
-      <c r="N395" s="1" t="s">
+      <c r="Q395" s="13" t="s">
         <v>2059</v>
-      </c>
-      <c r="O395" s="13" t="s">
-        <v>2058</v>
-      </c>
-      <c r="Q395" s="13" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="B396" s="1" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="D396" s="13" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="L396" s="4"/>
       <c r="M396" s="13" t="s">
+        <v>2064</v>
+      </c>
+      <c r="N396" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="O396" s="13" t="s">
         <v>2063</v>
       </c>
-      <c r="N396" s="1" t="s">
-        <v>2064</v>
-      </c>
-      <c r="O396" s="13" t="s">
-        <v>2062</v>
-      </c>
       <c r="Q396" s="13" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="B397" s="1" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="D397" s="13" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="L397" s="4"/>
       <c r="M397" s="13" t="s">
+        <v>2069</v>
+      </c>
+      <c r="N397" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="O397" s="13" t="s">
         <v>2068</v>
       </c>
-      <c r="N397" s="1" t="s">
-        <v>2069</v>
-      </c>
-      <c r="O397" s="13" t="s">
-        <v>2067</v>
-      </c>
       <c r="Q397" s="13" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="B398" s="1" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="D398" s="13" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="L398" s="4"/>
       <c r="M398" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="N398" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="O398" s="13" t="s">
         <v>2073</v>
       </c>
-      <c r="N398" s="1" t="s">
-        <v>2074</v>
-      </c>
-      <c r="O398" s="13" t="s">
-        <v>2072</v>
-      </c>
       <c r="Q398" s="13" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="B399" s="1" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D399" s="13" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="L399" s="4"/>
       <c r="M399" s="13" t="s">
+        <v>2079</v>
+      </c>
+      <c r="N399" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O399" s="13" t="s">
         <v>2078</v>
       </c>
-      <c r="N399" s="1" t="s">
-        <v>2079</v>
-      </c>
-      <c r="O399" s="13" t="s">
-        <v>2077</v>
-      </c>
       <c r="Q399" s="13" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1">
@@ -17904,98 +17907,98 @@
         <v>1343</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="D400" s="16" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="L400" s="4"/>
       <c r="M400" s="16" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="N400" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="O400" s="16" t="s">
         <v>2083</v>
       </c>
-      <c r="O400" s="16" t="s">
-        <v>2082</v>
-      </c>
       <c r="Q400" s="16" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="B401" s="1" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="D401" s="16" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="L401" s="4"/>
       <c r="M401" s="16" t="s">
+        <v>2088</v>
+      </c>
+      <c r="N401" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O401" s="16" t="s">
         <v>2087</v>
       </c>
-      <c r="N401" s="1" t="s">
-        <v>2088</v>
-      </c>
-      <c r="O401" s="16" t="s">
-        <v>2086</v>
-      </c>
       <c r="Q401" s="16" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="B402" s="1" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="L402" s="4"/>
       <c r="M402" s="2" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="N402" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O402" s="2" t="s">
         <v>2092</v>
       </c>
-      <c r="O402" s="2" t="s">
-        <v>2091</v>
-      </c>
       <c r="Q402" s="2" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="B403" s="1" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="L403" s="4"/>
       <c r="M403" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="N403" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="O403" s="2" t="s">
         <v>2096</v>
       </c>
-      <c r="N403" s="1" t="s">
-        <v>2097</v>
-      </c>
-      <c r="O403" s="2" t="s">
-        <v>2095</v>
-      </c>
       <c r="Q403" s="2" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
@@ -18003,26 +18006,26 @@
         <v>1155</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D404" s="16" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="L404" s="4"/>
       <c r="M404" s="16" t="s">
+        <v>2102</v>
+      </c>
+      <c r="N404" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="O404" s="16" t="s">
         <v>2101</v>
       </c>
-      <c r="N404" s="1" t="s">
-        <v>2102</v>
-      </c>
-      <c r="O404" s="16" t="s">
-        <v>2100</v>
-      </c>
       <c r="Q404" s="16" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
@@ -18030,26 +18033,26 @@
         <v>1327</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="D405" s="16" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="L405" s="4"/>
       <c r="M405" s="16" t="s">
+        <v>2107</v>
+      </c>
+      <c r="N405" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="O405" s="16" t="s">
+        <v>2109</v>
+      </c>
+      <c r="Q405" s="16" t="s">
         <v>2106</v>
-      </c>
-      <c r="N405" s="1" t="s">
-        <v>2107</v>
-      </c>
-      <c r="O405" s="16" t="s">
-        <v>2108</v>
-      </c>
-      <c r="Q405" s="16" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
@@ -18057,26 +18060,26 @@
         <v>1375</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="D406" s="19" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="L406" s="4"/>
       <c r="M406" s="16" t="s">
+        <v>2113</v>
+      </c>
+      <c r="N406" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="O406" s="19" t="s">
         <v>2112</v>
       </c>
-      <c r="N406" s="1" t="s">
-        <v>2113</v>
-      </c>
-      <c r="O406" s="19" t="s">
-        <v>2111</v>
-      </c>
       <c r="Q406" s="19" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
@@ -18084,74 +18087,74 @@
         <v>1343</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="D407" s="16" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="L407" s="4"/>
       <c r="M407" s="16" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="N407" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="O407" s="16" t="s">
         <v>2117</v>
       </c>
-      <c r="O407" s="16" t="s">
-        <v>2116</v>
-      </c>
       <c r="Q407" s="16" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="B408" s="1" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D408" s="16" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="L408" s="4"/>
       <c r="M408" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="N408" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="O408" s="16" t="s">
         <v>2121</v>
       </c>
-      <c r="N408" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="O408" s="16" t="s">
-        <v>2120</v>
-      </c>
       <c r="Q408" s="16" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="B409" s="1" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="D409" s="16" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="L409" s="4"/>
       <c r="M409" s="16" t="s">
+        <v>2127</v>
+      </c>
+      <c r="N409" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="O409" s="16" t="s">
         <v>2126</v>
       </c>
-      <c r="N409" s="1" t="s">
-        <v>2127</v>
-      </c>
-      <c r="O409" s="16" t="s">
-        <v>2125</v>
-      </c>
       <c r="Q409" s="16" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="410" ht="15.75" customHeight="1">
@@ -18159,74 +18162,74 @@
         <v>1155</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="D410" s="16" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="L410" s="4"/>
       <c r="M410" s="16" t="s">
+        <v>2132</v>
+      </c>
+      <c r="N410" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="O410" s="16" t="s">
         <v>2131</v>
       </c>
-      <c r="N410" s="1" t="s">
-        <v>2132</v>
-      </c>
-      <c r="O410" s="16" t="s">
-        <v>2130</v>
-      </c>
       <c r="Q410" s="16" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="B411" s="1" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="D411" s="16" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="L411" s="4"/>
       <c r="M411" s="16" t="s">
+        <v>2137</v>
+      </c>
+      <c r="N411" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="O411" s="16" t="s">
         <v>2136</v>
       </c>
-      <c r="N411" s="1" t="s">
-        <v>2137</v>
-      </c>
-      <c r="O411" s="16" t="s">
-        <v>2135</v>
-      </c>
       <c r="Q411" s="16" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="B412" s="1" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="D412" s="16" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="L412" s="4"/>
       <c r="M412" s="16" t="s">
+        <v>2142</v>
+      </c>
+      <c r="N412" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="O412" s="16" t="s">
         <v>2141</v>
       </c>
-      <c r="N412" s="1" t="s">
-        <v>2142</v>
-      </c>
-      <c r="O412" s="16" t="s">
-        <v>2140</v>
-      </c>
       <c r="Q412" s="16" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1">
@@ -18234,26 +18237,26 @@
         <v>1375</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="D413" s="16" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="L413" s="4"/>
       <c r="M413" s="16" t="s">
+        <v>2147</v>
+      </c>
+      <c r="N413" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="O413" s="16" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Q413" s="16" t="s">
         <v>2146</v>
-      </c>
-      <c r="N413" s="1" t="s">
-        <v>2147</v>
-      </c>
-      <c r="O413" s="16" t="s">
-        <v>2148</v>
-      </c>
-      <c r="Q413" s="16" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1">
@@ -18261,74 +18264,74 @@
         <v>1327</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="D414" s="16" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="L414" s="4"/>
       <c r="M414" s="16" t="s">
+        <v>2153</v>
+      </c>
+      <c r="N414" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="O414" s="16" t="s">
         <v>2152</v>
       </c>
-      <c r="N414" s="1" t="s">
-        <v>2153</v>
-      </c>
-      <c r="O414" s="16" t="s">
-        <v>2151</v>
-      </c>
       <c r="Q414" s="16" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="B415" s="1" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="D415" s="16" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="L415" s="4"/>
       <c r="M415" s="16" t="s">
+        <v>2158</v>
+      </c>
+      <c r="N415" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="O415" s="16" t="s">
         <v>2157</v>
       </c>
-      <c r="N415" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="O415" s="16" t="s">
-        <v>2156</v>
-      </c>
       <c r="Q415" s="16" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="B416" s="1" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D416" s="16" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="L416" s="4"/>
       <c r="M416" s="16" t="s">
+        <v>2163</v>
+      </c>
+      <c r="N416" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="O416" s="16" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q416" s="16" t="s">
         <v>2162</v>
-      </c>
-      <c r="N416" s="1" t="s">
-        <v>2163</v>
-      </c>
-      <c r="O416" s="16" t="s">
-        <v>2164</v>
-      </c>
-      <c r="Q416" s="16" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1">
@@ -18336,26 +18339,26 @@
         <v>1375</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="D417" s="16" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="L417" s="4"/>
       <c r="M417" s="16" t="s">
+        <v>2169</v>
+      </c>
+      <c r="N417" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="O417" s="16" t="s">
         <v>2168</v>
       </c>
-      <c r="N417" s="1" t="s">
-        <v>2169</v>
-      </c>
-      <c r="O417" s="16" t="s">
-        <v>2167</v>
-      </c>
       <c r="Q417" s="16" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1">
@@ -18363,50 +18366,50 @@
         <v>1155</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="D418" s="16" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="L418" s="4"/>
       <c r="M418" s="16" t="s">
+        <v>2174</v>
+      </c>
+      <c r="N418" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="O418" s="16" t="s">
         <v>2173</v>
       </c>
-      <c r="N418" s="1" t="s">
-        <v>2174</v>
-      </c>
-      <c r="O418" s="16" t="s">
-        <v>2172</v>
-      </c>
       <c r="Q418" s="16" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="B419" s="1" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="L419" s="4"/>
       <c r="M419" s="16" t="s">
+        <v>2179</v>
+      </c>
+      <c r="N419" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="O419" s="16" t="s">
         <v>2178</v>
       </c>
-      <c r="N419" s="1" t="s">
-        <v>2179</v>
-      </c>
-      <c r="O419" s="16" t="s">
-        <v>2177</v>
-      </c>
       <c r="Q419" s="16" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1">
@@ -18414,50 +18417,50 @@
         <v>1327</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="L420" s="4"/>
       <c r="M420" s="16" t="s">
+        <v>2184</v>
+      </c>
+      <c r="N420" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="O420" s="16" t="s">
         <v>2183</v>
       </c>
-      <c r="N420" s="1" t="s">
-        <v>2184</v>
-      </c>
-      <c r="O420" s="16" t="s">
-        <v>2182</v>
-      </c>
       <c r="Q420" s="16" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="B421" s="1" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="L421" s="4"/>
       <c r="M421" s="16" t="s">
+        <v>2189</v>
+      </c>
+      <c r="N421" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="O421" s="16" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Q421" s="16" t="s">
         <v>2188</v>
-      </c>
-      <c r="N421" s="1" t="s">
-        <v>2189</v>
-      </c>
-      <c r="O421" s="16" t="s">
-        <v>2190</v>
-      </c>
-      <c r="Q421" s="16" t="s">
-        <v>2187</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1">
@@ -18465,74 +18468,74 @@
         <v>1375</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="L422" s="4"/>
       <c r="M422" s="2" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="N422" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="O422" s="2" t="s">
         <v>2194</v>
       </c>
-      <c r="O422" s="2" t="s">
-        <v>2193</v>
-      </c>
       <c r="Q422" s="2" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="B423" s="1" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="L423" s="4"/>
       <c r="M423" s="2" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="N423" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="O423" s="2" t="s">
         <v>2198</v>
       </c>
-      <c r="O423" s="2" t="s">
-        <v>2197</v>
-      </c>
       <c r="Q423" s="2" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="B424" s="1" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="D424" s="13" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="L424" s="4"/>
       <c r="M424" s="13" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="N424" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="O424" s="13" t="s">
         <v>2202</v>
       </c>
-      <c r="O424" s="13" t="s">
-        <v>2201</v>
-      </c>
       <c r="Q424" s="13" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1">
@@ -18540,26 +18543,26 @@
         <v>1375</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="L425" s="4"/>
       <c r="M425" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="N425" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="O425" s="2" t="s">
         <v>2206</v>
       </c>
-      <c r="N425" s="1" t="s">
-        <v>2207</v>
-      </c>
-      <c r="O425" s="2" t="s">
-        <v>2205</v>
-      </c>
       <c r="Q425" s="2" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1">
@@ -18567,146 +18570,146 @@
         <v>1327</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="L426" s="4"/>
       <c r="M426" s="2" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="N426" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="O426" s="2" t="s">
         <v>2211</v>
       </c>
-      <c r="O426" s="2" t="s">
-        <v>2210</v>
-      </c>
       <c r="Q426" s="2" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="B427" s="1" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="L427" s="4"/>
       <c r="M427" s="2" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="N427" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="O427" s="2" t="s">
         <v>2215</v>
       </c>
-      <c r="O427" s="2" t="s">
-        <v>2214</v>
-      </c>
       <c r="Q427" s="2" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="B428" s="1" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="D428" s="16" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="L428" s="4"/>
       <c r="M428" s="16" t="s">
+        <v>2220</v>
+      </c>
+      <c r="N428" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="O428" s="16" t="s">
         <v>2219</v>
       </c>
-      <c r="N428" s="1" t="s">
-        <v>2220</v>
-      </c>
-      <c r="O428" s="16" t="s">
-        <v>2218</v>
-      </c>
       <c r="Q428" s="16" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="B429" s="1" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="D429" s="16" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="L429" s="4"/>
       <c r="M429" s="16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N429" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="O429" s="16" t="s">
         <v>2224</v>
       </c>
-      <c r="N429" s="1" t="s">
-        <v>2225</v>
-      </c>
-      <c r="O429" s="16" t="s">
-        <v>2223</v>
-      </c>
       <c r="Q429" s="16" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="B430" s="1" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="D430" s="16" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="L430" s="4"/>
       <c r="M430" s="16" t="s">
+        <v>2230</v>
+      </c>
+      <c r="N430" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="O430" s="16" t="s">
+        <v>2232</v>
+      </c>
+      <c r="Q430" s="16" t="s">
         <v>2229</v>
-      </c>
-      <c r="N430" s="1" t="s">
-        <v>2230</v>
-      </c>
-      <c r="O430" s="16" t="s">
-        <v>2231</v>
-      </c>
-      <c r="Q430" s="16" t="s">
-        <v>2228</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="B431" s="1" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="L431" s="4"/>
       <c r="M431" s="16" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="N431" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O431" s="16" t="s">
         <v>2235</v>
       </c>
-      <c r="O431" s="16" t="s">
-        <v>2234</v>
-      </c>
       <c r="Q431" s="16" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1">
@@ -18714,26 +18717,26 @@
         <v>1343</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="L432" s="4"/>
       <c r="M432" s="2" t="s">
+        <v>2240</v>
+      </c>
+      <c r="N432" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="O432" s="2" t="s">
         <v>2239</v>
       </c>
-      <c r="N432" s="1" t="s">
-        <v>2240</v>
-      </c>
-      <c r="O432" s="2" t="s">
-        <v>2238</v>
-      </c>
       <c r="Q432" s="2" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1">
@@ -18741,26 +18744,26 @@
         <v>1343</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="L433" s="4"/>
       <c r="M433" s="16" t="s">
+        <v>2245</v>
+      </c>
+      <c r="N433" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="O433" s="16" t="s">
         <v>2244</v>
       </c>
-      <c r="N433" s="1" t="s">
-        <v>2245</v>
-      </c>
-      <c r="O433" s="16" t="s">
-        <v>2243</v>
-      </c>
       <c r="Q433" s="16" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1">
@@ -18768,26 +18771,26 @@
         <v>1155</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="D434" s="17" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="L434" s="4"/>
       <c r="M434" s="16" t="s">
+        <v>2250</v>
+      </c>
+      <c r="N434" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="O434" s="17" t="s">
+        <v>2252</v>
+      </c>
+      <c r="Q434" s="17" t="s">
         <v>2249</v>
-      </c>
-      <c r="N434" s="1" t="s">
-        <v>2250</v>
-      </c>
-      <c r="O434" s="17" t="s">
-        <v>2251</v>
-      </c>
-      <c r="Q434" s="17" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1">
@@ -18795,26 +18798,26 @@
         <v>1327</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="L435" s="4"/>
       <c r="M435" s="2" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="N435" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="O435" s="2" t="s">
         <v>2255</v>
       </c>
-      <c r="O435" s="2" t="s">
-        <v>2254</v>
-      </c>
       <c r="Q435" s="2" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1">
@@ -18822,98 +18825,98 @@
         <v>1327</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="D436" s="13" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="L436" s="4"/>
       <c r="M436" s="13" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="N436" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="O436" s="13" t="s">
         <v>2259</v>
       </c>
-      <c r="O436" s="13" t="s">
-        <v>2258</v>
-      </c>
       <c r="Q436" s="13" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="B437" s="1" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="L437" s="4"/>
       <c r="M437" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="N437" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="O437" s="2" t="s">
         <v>2263</v>
       </c>
-      <c r="N437" s="1" t="s">
-        <v>2264</v>
-      </c>
-      <c r="O437" s="2" t="s">
-        <v>2262</v>
-      </c>
       <c r="Q437" s="2" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="B438" s="1" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="L438" s="4"/>
       <c r="M438" s="2" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="N438" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="O438" s="2" t="s">
         <v>2268</v>
       </c>
-      <c r="O438" s="2" t="s">
-        <v>2267</v>
-      </c>
       <c r="Q438" s="2" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="B439" s="1" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="L439" s="4"/>
       <c r="M439" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N439" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="O439" s="2" t="s">
         <v>2272</v>
       </c>
-      <c r="N439" s="1" t="s">
-        <v>2273</v>
-      </c>
-      <c r="O439" s="2" t="s">
-        <v>2271</v>
-      </c>
       <c r="Q439" s="2" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1">
@@ -18921,50 +18924,50 @@
         <v>1343</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="L440" s="4"/>
       <c r="M440" s="2" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="N440" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="O440" s="2" t="s">
         <v>2277</v>
       </c>
-      <c r="O440" s="2" t="s">
-        <v>2276</v>
-      </c>
       <c r="Q440" s="2" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="B441" s="1" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="L441" s="4"/>
       <c r="M441" s="2" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="N441" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="O441" s="2" t="s">
         <v>2281</v>
       </c>
-      <c r="O441" s="2" t="s">
-        <v>2280</v>
-      </c>
       <c r="Q441" s="2" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="442" ht="15.75" customHeight="1">
@@ -18972,74 +18975,74 @@
         <v>1343</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="L442" s="4"/>
       <c r="M442" s="16" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="N442" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="O442" s="16" t="s">
         <v>2285</v>
       </c>
-      <c r="O442" s="16" t="s">
-        <v>2284</v>
-      </c>
       <c r="Q442" s="16" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="B443" s="1" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="D443" s="14" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="L443" s="4"/>
       <c r="M443" s="13" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="N443" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="O443" s="14" t="s">
         <v>2289</v>
       </c>
-      <c r="O443" s="14" t="s">
-        <v>2288</v>
-      </c>
       <c r="Q443" s="14" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="B444" s="1" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="L444" s="4"/>
       <c r="M444" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="N444" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="O444" s="2" t="s">
         <v>2293</v>
       </c>
-      <c r="N444" s="1" t="s">
-        <v>2294</v>
-      </c>
-      <c r="O444" s="2" t="s">
-        <v>2292</v>
-      </c>
       <c r="Q444" s="2" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1">
@@ -19047,26 +19050,26 @@
         <v>1343</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="D445" s="16" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="L445" s="4"/>
       <c r="M445" s="16" t="s">
+        <v>2299</v>
+      </c>
+      <c r="N445" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="O445" s="16" t="s">
         <v>2298</v>
       </c>
-      <c r="N445" s="1" t="s">
-        <v>2299</v>
-      </c>
-      <c r="O445" s="16" t="s">
-        <v>2297</v>
-      </c>
       <c r="Q445" s="16" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="446" ht="15.75" customHeight="1">
@@ -19074,50 +19077,50 @@
         <v>1327</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="L446" s="4"/>
       <c r="M446" s="2" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="N446" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="O446" s="2" t="s">
         <v>2303</v>
       </c>
-      <c r="O446" s="2" t="s">
-        <v>2302</v>
-      </c>
       <c r="Q446" s="2" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="B447" s="1" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="D447" s="18" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="L447" s="4"/>
       <c r="M447" s="16" t="s">
+        <v>2308</v>
+      </c>
+      <c r="N447" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="O447" s="18" t="s">
         <v>2307</v>
       </c>
-      <c r="N447" s="1" t="s">
-        <v>2308</v>
-      </c>
-      <c r="O447" s="18" t="s">
-        <v>2306</v>
-      </c>
       <c r="Q447" s="18" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1">
@@ -19125,26 +19128,26 @@
         <v>1155</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="D448" s="16" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="L448" s="4"/>
       <c r="M448" s="16" t="s">
+        <v>2313</v>
+      </c>
+      <c r="N448" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="O448" s="16" t="s">
+        <v>2315</v>
+      </c>
+      <c r="Q448" s="16" t="s">
         <v>2312</v>
-      </c>
-      <c r="N448" s="1" t="s">
-        <v>2313</v>
-      </c>
-      <c r="O448" s="16" t="s">
-        <v>2314</v>
-      </c>
-      <c r="Q448" s="16" t="s">
-        <v>2311</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1">
@@ -19152,50 +19155,50 @@
         <v>1327</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="D449" s="16" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="L449" s="4"/>
       <c r="M449" s="16" t="s">
+        <v>2319</v>
+      </c>
+      <c r="N449" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="O449" s="16" t="s">
         <v>2318</v>
       </c>
-      <c r="N449" s="1" t="s">
-        <v>2319</v>
-      </c>
-      <c r="O449" s="16" t="s">
-        <v>2317</v>
-      </c>
       <c r="Q449" s="16" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="B450" s="1" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="D450" s="11" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="L450" s="4"/>
       <c r="M450" s="13" t="s">
+        <v>2324</v>
+      </c>
+      <c r="N450" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="O450" s="11" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Q450" s="11" t="s">
         <v>2323</v>
-      </c>
-      <c r="N450" s="1" t="s">
-        <v>2324</v>
-      </c>
-      <c r="O450" s="11" t="s">
-        <v>2325</v>
-      </c>
-      <c r="Q450" s="11" t="s">
-        <v>2322</v>
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1">
@@ -19203,26 +19206,26 @@
         <v>1375</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="D451" s="16" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="L451" s="4"/>
       <c r="M451" s="16" t="s">
+        <v>2330</v>
+      </c>
+      <c r="N451" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="O451" s="16" t="s">
         <v>2329</v>
       </c>
-      <c r="N451" s="1" t="s">
-        <v>2330</v>
-      </c>
-      <c r="O451" s="16" t="s">
-        <v>2328</v>
-      </c>
       <c r="Q451" s="16" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1">
@@ -19230,50 +19233,50 @@
         <v>1327</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="D452" s="13" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="L452" s="4"/>
       <c r="M452" s="13" t="s">
+        <v>2335</v>
+      </c>
+      <c r="N452" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="O452" s="13" t="s">
         <v>2334</v>
       </c>
-      <c r="N452" s="1" t="s">
-        <v>2335</v>
-      </c>
-      <c r="O452" s="13" t="s">
-        <v>2333</v>
-      </c>
       <c r="Q452" s="13" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="B453" s="1" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="D453" s="13" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="L453" s="4"/>
       <c r="M453" s="13" t="s">
+        <v>2340</v>
+      </c>
+      <c r="N453" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="O453" s="13" t="s">
         <v>2339</v>
       </c>
-      <c r="N453" s="1" t="s">
-        <v>2340</v>
-      </c>
-      <c r="O453" s="13" t="s">
-        <v>2338</v>
-      </c>
       <c r="Q453" s="13" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1">
@@ -19281,50 +19284,50 @@
         <v>1327</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="D454" s="13" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="L454" s="4"/>
       <c r="M454" s="13" t="s">
+        <v>2345</v>
+      </c>
+      <c r="N454" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="O454" s="13" t="s">
         <v>2344</v>
       </c>
-      <c r="N454" s="1" t="s">
-        <v>2345</v>
-      </c>
-      <c r="O454" s="13" t="s">
-        <v>2343</v>
-      </c>
       <c r="Q454" s="13" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="B455" s="1" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="D455" s="5" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="L455" s="4"/>
       <c r="M455" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="N455" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="O455" s="5" t="s">
         <v>2349</v>
       </c>
-      <c r="N455" s="1" t="s">
-        <v>2350</v>
-      </c>
-      <c r="O455" s="5" t="s">
-        <v>2348</v>
-      </c>
       <c r="Q455" s="5" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1">
@@ -19332,149 +19335,149 @@
         <v>1343</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="D456" s="16" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="L456" s="4"/>
       <c r="M456" s="16" t="s">
+        <v>2355</v>
+      </c>
+      <c r="N456" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="O456" s="16" t="s">
         <v>2354</v>
       </c>
-      <c r="N456" s="1" t="s">
-        <v>2355</v>
-      </c>
-      <c r="O456" s="16" t="s">
-        <v>2353</v>
-      </c>
       <c r="Q456" s="16" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="B457" s="1" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="D457" s="16" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="L457" s="4"/>
       <c r="M457" s="16" t="s">
+        <v>2360</v>
+      </c>
+      <c r="N457" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="O457" s="16" t="s">
         <v>2359</v>
       </c>
-      <c r="N457" s="1" t="s">
-        <v>2360</v>
-      </c>
-      <c r="O457" s="16" t="s">
-        <v>2358</v>
-      </c>
       <c r="Q457" s="16" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="1" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="L458" s="4"/>
       <c r="M458" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="N458" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="O458" s="2" t="s">
         <v>2365</v>
       </c>
-      <c r="N458" s="1" t="s">
-        <v>2366</v>
-      </c>
-      <c r="O458" s="2" t="s">
-        <v>2364</v>
-      </c>
       <c r="Q458" s="2" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="B459" s="1" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="D459" s="13" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="L459" s="4"/>
       <c r="M459" s="13" t="s">
+        <v>2371</v>
+      </c>
+      <c r="N459" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="O459" s="13" t="s">
         <v>2370</v>
       </c>
-      <c r="N459" s="1" t="s">
+      <c r="Q459" s="13" t="s">
         <v>2370</v>
-      </c>
-      <c r="O459" s="13" t="s">
-        <v>2369</v>
-      </c>
-      <c r="Q459" s="13" t="s">
-        <v>2369</v>
       </c>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="B460" s="1" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="D460" s="13" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="L460" s="4"/>
       <c r="M460" s="13" t="s">
+        <v>2375</v>
+      </c>
+      <c r="N460" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O460" s="13" t="s">
         <v>2374</v>
       </c>
-      <c r="N460" s="1" t="s">
-        <v>2375</v>
-      </c>
-      <c r="O460" s="13" t="s">
-        <v>2373</v>
-      </c>
       <c r="Q460" s="13" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="B461" s="1" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="D461" s="13" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="L461" s="4"/>
       <c r="M461" s="13" t="s">
+        <v>2380</v>
+      </c>
+      <c r="N461" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="O461" s="13" t="s">
         <v>2379</v>
       </c>
-      <c r="N461" s="1" t="s">
-        <v>2380</v>
-      </c>
-      <c r="O461" s="13" t="s">
-        <v>2378</v>
-      </c>
       <c r="Q461" s="13" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="462" ht="15.75" customHeight="1">
